--- a/config_Release/sys_by3d_jchd_config.xlsx
+++ b/config_Release/sys_by3d_jchd_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>line|行号</t>
   </si>
@@ -51,13 +51,17 @@
   <si>
     <t>"sys_act_base",</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_jqshl",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +83,21 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -133,7 +152,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,6 +161,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -419,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,6 +532,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/sys_by3d_jchd_config.xlsx
+++ b/config_Release/sys_by3d_jchd_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>line|行号</t>
   </si>
@@ -40,6 +40,16 @@
   </si>
   <si>
     <t>"act_035_ybwl",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi_key</t>
+  </si>
+  <si>
+    <t>zchd_new</t>
+  </si>
+  <si>
+    <t>"sys_act_base",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +94,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -117,12 +133,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -400,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -415,7 +434,7 @@
     <col min="5" max="5" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +447,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -443,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -457,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -469,6 +491,23 @@
       </c>
       <c r="D4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/sys_by3d_jchd_config.xlsx
+++ b/config_Release/sys_by3d_jchd_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>line|行号</t>
   </si>
@@ -49,12 +49,20 @@
     <t>zchd_new</t>
   </si>
   <si>
+    <t>"act_027_jqshl",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>"sys_act_base",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"act_027_jqshl",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>"by3d_ad_mfcj",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cps_xycj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -441,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -526,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -543,10 +551,27 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/sys_by3d_jchd_config.xlsx
+++ b/config_Release/sys_by3d_jchd_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,19 +49,19 @@
     <t>zchd_new</t>
   </si>
   <si>
-    <t>"act_027_jqshl",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_act_base",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"by3d_ad_mfcj",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>cps_xycj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","weekly","enter",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_jqshl",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,21 +91,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -160,7 +145,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,9 +154,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -452,7 +434,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -534,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -550,8 +532,8 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -568,10 +550,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/sys_by3d_jchd_config.xlsx
+++ b/config_Release/sys_by3d_jchd_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>line|行号</t>
   </si>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>"act_027_jqshl",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_3dby_xyxtg",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,6 +560,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
